--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H2">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I2">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J2">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.394935666666667</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N2">
-        <v>4.184807</v>
+        <v>0.272241</v>
       </c>
       <c r="O2">
-        <v>0.6387935784928049</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P2">
-        <v>0.638793578492805</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q2">
-        <v>29.912757717194</v>
+        <v>0.7023502605420001</v>
       </c>
       <c r="R2">
-        <v>269.214819454746</v>
+        <v>6.321152344878</v>
       </c>
       <c r="S2">
-        <v>0.3872992005171081</v>
+        <v>0.02920507801320432</v>
       </c>
       <c r="T2">
-        <v>0.3872992005171082</v>
+        <v>0.02920507801320431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H3">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I3">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J3">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7887676666666668</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N3">
-        <v>2.366303</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q3">
-        <v>16.914196598426</v>
+        <v>10.79631755234511</v>
       </c>
       <c r="R3">
-        <v>152.227769385834</v>
+        <v>97.16685797110598</v>
       </c>
       <c r="S3">
-        <v>0.2189986921932683</v>
+        <v>0.4489316998732868</v>
       </c>
       <c r="T3">
-        <v>0.2189986921932683</v>
+        <v>0.4489316998732868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.641794</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H4">
-        <v>10.925382</v>
+        <v>23.218958</v>
       </c>
       <c r="I4">
-        <v>0.1029672609675761</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J4">
-        <v>0.1029672609675761</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.394935666666667</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N4">
-        <v>4.184807</v>
+        <v>1.591243</v>
       </c>
       <c r="O4">
-        <v>0.6387935784928049</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P4">
-        <v>0.638793578492805</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q4">
-        <v>5.080068341252668</v>
+        <v>4.105222709421556</v>
       </c>
       <c r="R4">
-        <v>45.720615071274</v>
+        <v>36.947004384794</v>
       </c>
       <c r="S4">
-        <v>0.06577482510108043</v>
+        <v>0.1707030754109971</v>
       </c>
       <c r="T4">
-        <v>0.06577482510108044</v>
+        <v>0.1707030754109971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>10.925382</v>
       </c>
       <c r="I5">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J5">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7887676666666668</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N5">
-        <v>2.366303</v>
+        <v>0.272241</v>
       </c>
       <c r="O5">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P5">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q5">
-        <v>2.872529355860667</v>
+        <v>0.3304818801180001</v>
       </c>
       <c r="R5">
-        <v>25.85276420274601</v>
+        <v>2.974336921062001</v>
       </c>
       <c r="S5">
-        <v>0.03719243586649562</v>
+        <v>0.01374207376722324</v>
       </c>
       <c r="T5">
-        <v>0.03719243586649563</v>
+        <v>0.01374207376722324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.28284533333333</v>
+        <v>3.641794</v>
       </c>
       <c r="H6">
-        <v>30.848536</v>
+        <v>10.925382</v>
       </c>
       <c r="I6">
-        <v>0.2907348463220475</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J6">
-        <v>0.2907348463220475</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,33 +800,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.394935666666667</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N6">
-        <v>4.184807</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O6">
-        <v>0.6387935784928049</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P6">
-        <v>0.638793578492805</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q6">
-        <v>14.34390771028356</v>
+        <v>5.080068341252666</v>
       </c>
       <c r="R6">
-        <v>129.095169392552</v>
+        <v>45.720615071274</v>
       </c>
       <c r="S6">
-        <v>0.1857195528746165</v>
+        <v>0.2112390363523208</v>
       </c>
       <c r="T6">
-        <v>0.1857195528746165</v>
+        <v>0.2112390363523208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.28284533333333</v>
+        <v>3.641794</v>
       </c>
       <c r="H7">
-        <v>30.848536</v>
+        <v>10.925382</v>
       </c>
       <c r="I7">
-        <v>0.2907348463220475</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J7">
-        <v>0.2907348463220475</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7887676666666668</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N7">
-        <v>2.366303</v>
+        <v>1.591243</v>
       </c>
       <c r="O7">
-        <v>0.361206421507195</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P7">
-        <v>0.361206421507195</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q7">
-        <v>8.110775920267557</v>
+        <v>1.931659736647334</v>
       </c>
       <c r="R7">
-        <v>72.99698328240801</v>
+        <v>17.384937629826</v>
       </c>
       <c r="S7">
-        <v>0.1050152934474311</v>
+        <v>0.08032213622333745</v>
       </c>
       <c r="T7">
-        <v>0.1050152934474311</v>
+        <v>0.08032213622333745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5470016666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.641005</v>
+      </c>
+      <c r="I8">
+        <v>0.04585690035963046</v>
+      </c>
+      <c r="J8">
+        <v>0.04585690035963046</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.272241</v>
+      </c>
+      <c r="O8">
+        <v>0.04501122713837679</v>
+      </c>
+      <c r="P8">
+        <v>0.04501122713837678</v>
+      </c>
+      <c r="Q8">
+        <v>0.04963876024500001</v>
+      </c>
+      <c r="R8">
+        <v>0.4467488422050001</v>
+      </c>
+      <c r="S8">
+        <v>0.002064075357949239</v>
+      </c>
+      <c r="T8">
+        <v>0.002064075357949239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5470016666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.641005</v>
+      </c>
+      <c r="I9">
+        <v>0.04585690035963046</v>
+      </c>
+      <c r="J9">
+        <v>0.04585690035963046</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N9">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="P9">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="Q9">
+        <v>0.7630321345594443</v>
+      </c>
+      <c r="R9">
+        <v>6.867289211034999</v>
+      </c>
+      <c r="S9">
+        <v>0.03172834733369874</v>
+      </c>
+      <c r="T9">
+        <v>0.03172834733369874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5470016666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.641005</v>
+      </c>
+      <c r="I10">
+        <v>0.04585690035963046</v>
+      </c>
+      <c r="J10">
+        <v>0.04585690035963046</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5304143333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.591243</v>
+      </c>
+      <c r="O10">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="P10">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="Q10">
+        <v>0.2901375243572222</v>
+      </c>
+      <c r="R10">
+        <v>2.611237719215</v>
+      </c>
+      <c r="S10">
+        <v>0.01206447766798249</v>
+      </c>
+      <c r="T10">
+        <v>0.01206447766798249</v>
       </c>
     </row>
   </sheetData>
